--- a/Week3/week3_ex1_data.csv.xlsx
+++ b/Week3/week3_ex1_data.csv.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9636"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="week3_ex1_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3000" uniqueCount="1656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3005" uniqueCount="1661">
   <si>
     <t>Title</t>
   </si>
@@ -4987,12 +4987,27 @@
   </si>
   <si>
     <t>Nine Lives</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>CDF(UB)</t>
+  </si>
+  <si>
+    <t>CDF(LB)</t>
+  </si>
+  <si>
+    <t>test stat</t>
+  </si>
+  <si>
+    <t>observe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5827,16 +5842,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1001"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5866,8 +5881,23 @@
         <f>STDEV($E2:$E1001)</f>
         <v>18.810908172288375</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5915,8 +5945,12 @@
         <f>(M2-L2)*1000</f>
         <v>36.560913435495614</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <f>COUNTIFS(E$2:E$1001,"&gt;="&amp;H2,E$2:E$1001,"&lt;="&amp;I2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5964,8 +5998,12 @@
         <f t="shared" ref="N3:N7" si="3">(M3-L3)*1000</f>
         <v>202.97847103325867</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <f t="shared" ref="P3:P7" si="4">COUNTIFS(E$2:E$1001,"&gt;="&amp;H3,E$2:E$1001,"&lt;="&amp;I3)</f>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -6013,8 +6051,12 @@
         <f t="shared" si="3"/>
         <v>399.79920362474559</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <f t="shared" si="4"/>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6062,8 +6104,12 @@
         <f t="shared" si="3"/>
         <v>281.40337458969577</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -6111,8 +6157,12 @@
         <f t="shared" si="3"/>
         <v>70.508383342184786</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -6160,8 +6210,12 @@
         <f t="shared" si="3"/>
         <v>6.2071178829115059</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -6184,7 +6238,7 @@
         <v>258682</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -6207,7 +6261,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -6230,7 +6284,7 @@
         <v>7188</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -6253,7 +6307,7 @@
         <v>192177</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -6276,7 +6330,7 @@
         <v>232072</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -6299,7 +6353,7 @@
         <v>93103</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -6322,7 +6376,7 @@
         <v>323118</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -6345,7 +6399,7 @@
         <v>118151</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
